--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.346688666666667</v>
+        <v>2.502470333333333</v>
       </c>
       <c r="H2">
-        <v>10.040066</v>
+        <v>7.507410999999999</v>
       </c>
       <c r="I2">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="J2">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N2">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P2">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q2">
-        <v>74.00593112108577</v>
+        <v>180.3672976676062</v>
       </c>
       <c r="R2">
-        <v>666.053380089772</v>
+        <v>1623.305679008456</v>
       </c>
       <c r="S2">
-        <v>0.02031383957967397</v>
+        <v>0.03503617716134308</v>
       </c>
       <c r="T2">
-        <v>0.02031383957967397</v>
+        <v>0.03503617716134308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.346688666666667</v>
+        <v>2.502470333333333</v>
       </c>
       <c r="H3">
-        <v>10.040066</v>
+        <v>7.507410999999999</v>
       </c>
       <c r="I3">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="J3">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>22.867725</v>
       </c>
       <c r="O3">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P3">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q3">
-        <v>25.51038536331667</v>
+        <v>19.07526780110833</v>
       </c>
       <c r="R3">
-        <v>229.59346826985</v>
+        <v>171.677410209975</v>
       </c>
       <c r="S3">
-        <v>0.007002328976014031</v>
+        <v>0.003705352748098111</v>
       </c>
       <c r="T3">
-        <v>0.007002328976014031</v>
+        <v>0.003705352748098111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.346688666666667</v>
+        <v>2.502470333333333</v>
       </c>
       <c r="H4">
-        <v>10.040066</v>
+        <v>7.507410999999999</v>
       </c>
       <c r="I4">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="J4">
-        <v>0.1019109290125008</v>
+        <v>0.07821409705091072</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>243.606445</v>
       </c>
       <c r="O4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P4">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q4">
-        <v>271.7583095361522</v>
+        <v>203.2059672070994</v>
       </c>
       <c r="R4">
-        <v>2445.82478582537</v>
+        <v>1828.853704863895</v>
       </c>
       <c r="S4">
-        <v>0.07459476045681276</v>
+        <v>0.03947256714146954</v>
       </c>
       <c r="T4">
-        <v>0.07459476045681276</v>
+        <v>0.03947256714146953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>78.64939699999999</v>
       </c>
       <c r="I5">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="J5">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N5">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P5">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q5">
-        <v>579.7294417284637</v>
+        <v>1889.570079495679</v>
       </c>
       <c r="R5">
-        <v>5217.564975556174</v>
+        <v>17006.13071546111</v>
       </c>
       <c r="S5">
-        <v>0.1591295548949669</v>
+        <v>0.367047202680765</v>
       </c>
       <c r="T5">
-        <v>0.1591295548949669</v>
+        <v>0.367047202680765</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>78.64939699999999</v>
       </c>
       <c r="I6">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="J6">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>22.867725</v>
       </c>
       <c r="O6">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P6">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q6">
         <v>199.8369757790917</v>
@@ -818,10 +818,10 @@
         <v>1798.532782011825</v>
       </c>
       <c r="S6">
-        <v>0.05485312064274588</v>
+        <v>0.03881814373959402</v>
       </c>
       <c r="T6">
-        <v>0.05485312064274588</v>
+        <v>0.03881814373959402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>78.64939699999999</v>
       </c>
       <c r="I7">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="J7">
-        <v>0.7983247435368442</v>
+        <v>0.8193892102022395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>243.606445</v>
       </c>
       <c r="O7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P7">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q7">
         <v>2128.833333840407</v>
@@ -880,10 +880,10 @@
         <v>19159.50000456366</v>
       </c>
       <c r="S7">
-        <v>0.5843420679991315</v>
+        <v>0.4135238637818807</v>
       </c>
       <c r="T7">
-        <v>0.5843420679991315</v>
+        <v>0.4135238637818806</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.276195666666667</v>
+        <v>3.276195666666666</v>
       </c>
       <c r="H8">
-        <v>9.828587000000001</v>
+        <v>9.828586999999999</v>
       </c>
       <c r="I8">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="J8">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.11318066666666</v>
+        <v>72.07569866666667</v>
       </c>
       <c r="N8">
-        <v>66.33954199999999</v>
+        <v>216.227096</v>
       </c>
       <c r="O8">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="P8">
-        <v>0.1993293533530854</v>
+        <v>0.4479522040449755</v>
       </c>
       <c r="Q8">
-        <v>72.44710667635044</v>
+        <v>236.1340916437057</v>
       </c>
       <c r="R8">
-        <v>652.023960087154</v>
+        <v>2125.206824793352</v>
       </c>
       <c r="S8">
-        <v>0.01988595887844453</v>
+        <v>0.04586882420286746</v>
       </c>
       <c r="T8">
-        <v>0.01988595887844453</v>
+        <v>0.04586882420286746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.276195666666667</v>
+        <v>3.276195666666666</v>
       </c>
       <c r="H9">
-        <v>9.828587000000001</v>
+        <v>9.828586999999999</v>
       </c>
       <c r="I9">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="J9">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>22.867725</v>
       </c>
       <c r="O9">
-        <v>0.06871028498970018</v>
+        <v>0.04737448730867841</v>
       </c>
       <c r="P9">
-        <v>0.06871028498970018</v>
+        <v>0.0473744873086784</v>
       </c>
       <c r="Q9">
-        <v>24.97304718384167</v>
+        <v>24.97304718384166</v>
       </c>
       <c r="R9">
         <v>224.757424654575</v>
       </c>
       <c r="S9">
-        <v>0.006854835370940273</v>
+        <v>0.004850990820986271</v>
       </c>
       <c r="T9">
-        <v>0.006854835370940273</v>
+        <v>0.004850990820986271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.276195666666667</v>
+        <v>3.276195666666666</v>
       </c>
       <c r="H10">
-        <v>9.828587000000001</v>
+        <v>9.828586999999999</v>
       </c>
       <c r="I10">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="J10">
-        <v>0.099764327450655</v>
+        <v>0.1023966927468496</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>243.606445</v>
       </c>
       <c r="O10">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463462</v>
       </c>
       <c r="P10">
-        <v>0.7319603616572145</v>
+        <v>0.5046733086463461</v>
       </c>
       <c r="Q10">
         <v>266.0341264936906</v>
@@ -1066,10 +1066,10 @@
         <v>2394.307138443215</v>
       </c>
       <c r="S10">
-        <v>0.0730235332012702</v>
+        <v>0.05167687772299593</v>
       </c>
       <c r="T10">
-        <v>0.0730235332012702</v>
+        <v>0.05167687772299592</v>
       </c>
     </row>
   </sheetData>
